--- a/example/LusMeg00028.xlsx
+++ b/example/LusMeg00028.xlsx
@@ -1723,325 +1723,325 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0211</v>
+        <v>0.02111</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04584</v>
+        <v>0.04505</v>
       </c>
       <c r="E2" t="n">
-        <v>0.94457</v>
+        <v>0.94453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02751</v>
+        <v>0.02706</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03492</v>
+        <v>0.03467</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01518</v>
+        <v>0.01503</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03672</v>
+        <v>0.03563</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01135</v>
+        <v>0.01136</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01735</v>
+        <v>0.01668</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01485</v>
+        <v>0.01495</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01262</v>
+        <v>0.01249</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00874</v>
+        <v>0.00865</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02061</v>
+        <v>0.02029</v>
       </c>
       <c r="P2" t="n">
-        <v>0.02177</v>
+        <v>0.0215</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0089</v>
+        <v>0.00891</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02291</v>
+        <v>0.02245</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03803</v>
+        <v>0.03848</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01789</v>
+        <v>0.01713</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00667</v>
+        <v>0.00641</v>
       </c>
       <c r="V2" t="n">
-        <v>0.01647</v>
+        <v>0.01634</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0204</v>
+        <v>0.02006</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01715</v>
+        <v>0.01671</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.02098</v>
+        <v>0.02066</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.023</v>
+        <v>0.02295</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0174</v>
+        <v>0.01689</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01321</v>
+        <v>0.01327</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01385</v>
+        <v>0.01391</v>
       </c>
       <c r="AD2" t="n">
         <v>0.01102</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01341</v>
+        <v>0.01345</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01581</v>
+        <v>0.01494</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0039</v>
+        <v>0.00395</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01576</v>
+        <v>0.01589</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.00993</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02206</v>
+        <v>0.02214</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01241</v>
+        <v>0.01166</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0097</v>
+        <v>0.009769999999999999</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.02561</v>
+        <v>0.02526</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0177</v>
+        <v>0.01754</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00415</v>
+        <v>0.00407</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00792</v>
+        <v>0.00768</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01039</v>
+        <v>0.01056</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01111</v>
+        <v>0.01079</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01409</v>
+        <v>0.01356</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00388</v>
+        <v>0.00373</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.009129999999999999</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01203</v>
+        <v>0.01198</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01601</v>
+        <v>0.01579</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.008359999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0083</v>
+        <v>0.00818</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.02334</v>
+        <v>0.02291</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00661</v>
+        <v>0.00668</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.00446</v>
+        <v>0.00442</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0056</v>
+        <v>0.00572</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.02503</v>
+        <v>0.02393</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01598</v>
+        <v>0.01542</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.00752</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00731</v>
+        <v>0.00714</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.01455</v>
+        <v>0.01442</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00776</v>
+        <v>0.00774</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00949</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.01098</v>
+        <v>0.01079</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01169</v>
+        <v>0.01168</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00513</v>
+        <v>0.00494</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00755</v>
+        <v>0.00734</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01323</v>
+        <v>0.01354</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00944</v>
+        <v>0.00953</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00459</v>
+        <v>0.00449</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00479</v>
+        <v>0.00482</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01381</v>
+        <v>0.01372</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00426</v>
+        <v>0.00412</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0123</v>
+        <v>0.01209</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.01014</v>
+        <v>0.00993</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00596</v>
+        <v>0.00608</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.009390000000000001</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.00507</v>
+        <v>0.00506</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00664</v>
+        <v>0.00649</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01283</v>
+        <v>0.01249</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.008240000000000001</v>
+        <v>0.008109999999999999</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.01085</v>
+        <v>0.01067</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.01219</v>
+        <v>0.01192</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.00419</v>
+        <v>0.00416</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.00292</v>
+        <v>0.00285</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.00741</v>
+        <v>0.00732</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.01204</v>
+        <v>0.01201</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.01704</v>
+        <v>0.01579</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.01307</v>
+        <v>0.01263</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.00732</v>
+        <v>0.00706</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.00593</v>
+        <v>0.00582</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.00337</v>
+        <v>0.00331</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00864</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0037</v>
+        <v>0.00362</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.00215</v>
+        <v>0.00214</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.00812</v>
+        <v>0.0077</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0094</v>
+        <v>0.00911</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00208</v>
+        <v>0.00204</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.00618</v>
+        <v>0.00591</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0027</v>
+        <v>0.00264</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.01019</v>
+        <v>0.00988</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00437</v>
+        <v>0.00434</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00258</v>
+        <v>0.00248</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01384</v>
+        <v>0.01371</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00326</v>
+        <v>0.00323</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00199</v>
+        <v>0.00201</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00296</v>
+        <v>0.00299</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00275</v>
+        <v>0.00277</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00289</v>
+        <v>0.00288</v>
       </c>
       <c r="DF2" t="n">
         <v>0.00245</v>
@@ -2050,415 +2050,415 @@
         <v>0.00123</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00207</v>
+        <v>0.00204</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00752</v>
+        <v>0.00736</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00317</v>
+        <v>0.00312</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.00805</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0019</v>
+        <v>0.00183</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0046</v>
+        <v>0.00459</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00585</v>
+        <v>0.00575</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.009730000000000001</v>
+        <v>0.009809999999999999</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00658</v>
+        <v>0.00641</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00582</v>
+        <v>0.00558</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.00163</v>
+        <v>0.00157</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0019</v>
+        <v>0.00193</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00274</v>
+        <v>0.00266</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01259</v>
+        <v>0.01168</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00757</v>
+        <v>0.00753</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00216</v>
+        <v>0.00211</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00297</v>
+        <v>0.00298</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00345</v>
+        <v>0.00347</v>
       </c>
       <c r="DZ2" t="n">
+        <v>0.00467</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.00253</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.00354</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.00506</v>
+      </c>
+      <c r="EF2" t="n">
         <v>0.00464</v>
       </c>
-      <c r="EA2" t="n">
-        <v>0.00621</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.00257</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.00355</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.00543</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.00474</v>
-      </c>
       <c r="EG2" t="n">
-        <v>0.00283</v>
+        <v>0.00277</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00239</v>
+        <v>0.00233</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00159</v>
+        <v>0.00157</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00198</v>
+        <v>0.00195</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00441</v>
+        <v>0.00423</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00315</v>
+        <v>0.00306</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00258</v>
+        <v>0.00247</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00223</v>
+        <v>0.00224</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00736</v>
+        <v>0.00709</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00353</v>
+        <v>0.00334</v>
       </c>
       <c r="EQ2" t="n">
         <v>0.00993</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.00481</v>
+        <v>0.00445</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00355</v>
+        <v>0.00344</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.00148</v>
+        <v>0.00141</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00219</v>
+        <v>0.00213</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0015</v>
+        <v>0.00143</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00379</v>
+        <v>0.00365</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.00178</v>
+        <v>0.00171</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.00171</v>
+        <v>0.00173</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.00714</v>
+        <v>0.00706</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00284</v>
+        <v>0.00273</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00185</v>
+        <v>0.00183</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0029</v>
+        <v>0.00276</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.00137</v>
+        <v>0.00136</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00333</v>
+        <v>0.00319</v>
       </c>
       <c r="FF2" t="n">
         <v>0.00251</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.00371</v>
+        <v>0.00361</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0009</v>
+        <v>0.00092</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00314</v>
+        <v>0.00301</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.00164</v>
+        <v>0.00161</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00809</v>
+        <v>0.00829</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00276</v>
+        <v>0.00278</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00348</v>
+        <v>0.00353</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00107</v>
+        <v>0.00103</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00396</v>
+        <v>0.00386</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00182</v>
+        <v>0.00177</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.01003</v>
       </c>
       <c r="FR2" t="n">
         <v>0.00508</v>
       </c>
       <c r="FS2" t="n">
+        <v>0.00233</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.00517</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.00277</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.00138</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.00192</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.00199</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.00344</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="GF2" t="n">
         <v>0.00241</v>
       </c>
-      <c r="FT2" t="n">
-        <v>0.00612</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.00115</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.00525</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.00449</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.00283</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.00142</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.00359</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.00196</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.00245</v>
-      </c>
       <c r="GG2" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00096</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.00084</v>
+        <v>0.00085</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.00246</v>
+        <v>0.00235</v>
       </c>
       <c r="GJ2" t="n">
         <v>0.00139</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.00319</v>
+        <v>0.00327</v>
       </c>
       <c r="GL2" t="n">
+        <v>0.00131</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.01233</v>
+      </c>
+      <c r="GN2" t="n">
         <v>0.00134</v>
       </c>
-      <c r="GM2" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.00136</v>
-      </c>
       <c r="GO2" t="n">
-        <v>0.00202</v>
+        <v>0.00192</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.00078</v>
+        <v>0.00077</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.00115</v>
+        <v>0.00117</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.00075</v>
+        <v>0.00074</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.0019</v>
+        <v>0.00187</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.00207</v>
+        <v>0.00212</v>
       </c>
       <c r="GU2" t="n">
         <v>0.00081</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.00136</v>
+        <v>0.00131</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.00211</v>
+        <v>0.0021</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.002</v>
+        <v>0.00193</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.00141</v>
+        <v>0.00138</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.00088</v>
+        <v>0.00086</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.00186</v>
+        <v>0.00187</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.0016</v>
+        <v>0.00152</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.00377</v>
+        <v>0.00373</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.00189</v>
+        <v>0.00193</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.00138</v>
+        <v>0.00132</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.00187</v>
+        <v>0.0018</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00359</v>
+        <v>0.00346</v>
       </c>
       <c r="HH2" t="n">
         <v>0.00178</v>
       </c>
       <c r="HI2" t="n">
+        <v>0.00121</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.00116</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.0009700000000000001</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.00112</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0.00131</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>0.00316</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>0.00108</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.00246</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.00094</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.00052</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.00112</v>
+      </c>
+      <c r="HU2" t="n">
         <v>0.00118</v>
       </c>
-      <c r="HJ2" t="n">
-        <v>0.00115</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.00099</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.00114</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.00061</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.00136</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.00333</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.00111</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.00241</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.00096</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.00053</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.00115</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.00124</v>
-      </c>
       <c r="HV2" t="n">
+        <v>0.00151</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="HY2" t="n">
         <v>0.00156</v>
       </c>
-      <c r="HW2" t="n">
-        <v>0.00076</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.00081</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.00167</v>
-      </c>
       <c r="HZ2" t="n">
-        <v>0.00423</v>
+        <v>0.00414</v>
       </c>
       <c r="IA2" t="n">
         <v>0.00079</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.0022</v>
+        <v>0.00217</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.00213</v>
+        <v>0.00209</v>
       </c>
       <c r="ID2" t="n">
         <v>0.00112</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.00108</v>
+        <v>0.00103</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.00229</v>
+        <v>0.0023</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.00056</v>
+        <v>0.00054</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.00068</v>
+        <v>0.00069</v>
       </c>
       <c r="II2" t="n">
-        <v>0.00139</v>
+        <v>0.00135</v>
       </c>
       <c r="IJ2" t="n">
         <v>0.00065</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.00261</v>
+        <v>0.00249</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.00085</v>
+        <v>0.00083</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.0008</v>
+        <v>0.00079</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.00053</v>
+        <v>0.00052</v>
       </c>
       <c r="IO2" t="n">
         <v>0.0005999999999999999</v>
@@ -2467,16 +2467,16 @@
         <v>0.00062</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.00067</v>
+        <v>0.00069</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.0008</v>
+        <v>0.00079</v>
       </c>
       <c r="IS2" t="n">
         <v>0.00042</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.00049</v>
+        <v>0.00048</v>
       </c>
       <c r="IU2" t="n">
         <v>0.00047</v>
@@ -2493,766 +2493,766 @@
         <v>6.10063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02981</v>
+        <v>0.02907</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07246</v>
+        <v>0.07228999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9441000000000001</v>
+        <v>0.94385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0362</v>
+        <v>0.0368</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05753</v>
+        <v>0.05559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04059</v>
+        <v>0.04078</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04666</v>
+        <v>0.0443</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02043</v>
+        <v>0.02014</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04137</v>
+        <v>0.04102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02836</v>
+        <v>0.02825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02573</v>
+        <v>0.02556</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01767</v>
+        <v>0.01735</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09692000000000001</v>
+        <v>0.10596</v>
       </c>
       <c r="P3" t="n">
-        <v>0.02875</v>
+        <v>0.02874</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01611</v>
+        <v>0.01581</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04772</v>
+        <v>0.04668</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05166</v>
+        <v>0.05337</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03142</v>
+        <v>0.0308</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01497</v>
+        <v>0.01505</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03036</v>
+        <v>0.03113</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03869</v>
+        <v>0.03832</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04744</v>
+        <v>0.04642</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07982</v>
+        <v>0.08262</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06376999999999999</v>
+        <v>0.06353</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04063</v>
+        <v>0.04077</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02488</v>
+        <v>0.02454</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0458</v>
+        <v>0.04444</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03342</v>
+        <v>0.0334</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02957</v>
+        <v>0.02926</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06081</v>
+        <v>0.06052</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00707</v>
+        <v>0.00691</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04534</v>
+        <v>0.04405</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02264</v>
+        <v>0.02193</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.06831</v>
+        <v>0.06718</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02491</v>
+        <v>0.02455</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.02048</v>
+        <v>0.0197</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.04401</v>
+        <v>0.0423</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03873</v>
+        <v>0.03842</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02575</v>
+        <v>0.02641</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.00801</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.02072</v>
+        <v>0.01972</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01633</v>
+        <v>0.01583</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0318</v>
+        <v>0.03182</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.01156</v>
+        <v>0.01138</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.01501</v>
+        <v>0.01445</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.05178</v>
+        <v>0.05158</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02291</v>
+        <v>0.02304</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02037</v>
+        <v>0.02062</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.02322</v>
+        <v>0.02299</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.06073</v>
+        <v>0.05939</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.02293</v>
+        <v>0.0227</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0102</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.01425</v>
+        <v>0.01475</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.06672</v>
+        <v>0.06103</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.03864</v>
+        <v>0.0379</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01517</v>
+        <v>0.01445</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.02875</v>
+        <v>0.0288</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.03819</v>
+        <v>0.03725</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.02533</v>
+        <v>0.02447</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01406</v>
+        <v>0.01416</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01813</v>
+        <v>0.01826</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.04994</v>
+        <v>0.05018</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.00971</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02439</v>
+        <v>0.02529</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.03576</v>
+        <v>0.03585</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.01647</v>
+        <v>0.01689</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.01208</v>
+        <v>0.01203</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.01568</v>
+        <v>0.01491</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.02695</v>
+        <v>0.02649</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.00671</v>
+        <v>0.00661</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.02342</v>
+        <v>0.02322</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02466</v>
+        <v>0.02381</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01299</v>
+        <v>0.01259</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.01425</v>
+        <v>0.01389</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01227</v>
+        <v>0.01148</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.00792</v>
+        <v>0.00764</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.02078</v>
+        <v>0.01988</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.03154</v>
+        <v>0.0315</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02367</v>
+        <v>0.02318</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02966</v>
+        <v>0.02909</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.01041</v>
+        <v>0.009990000000000001</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.00516</v>
+        <v>0.00495</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01047</v>
+        <v>0.01044</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0135</v>
+        <v>0.01296</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01506</v>
+        <v>0.01531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02714</v>
+        <v>0.02653</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.01256</v>
+        <v>0.01202</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0114</v>
+        <v>0.01096</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0072</v>
+        <v>0.00688</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.03217</v>
+        <v>0.03335</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.00722</v>
+        <v>0.00678</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.00493</v>
+        <v>0.00469</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.00689</v>
+        <v>0.00667</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01671</v>
+        <v>0.01613</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.00415</v>
+        <v>0.00399</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.00637</v>
+        <v>0.00615</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0054</v>
+        <v>0.00522</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.01372</v>
+        <v>0.01309</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.00961</v>
+        <v>0.00929</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.00728</v>
+        <v>0.00719</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.03508</v>
+        <v>0.03467</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.00419</v>
+        <v>0.00406</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.009379999999999999</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.00746</v>
+        <v>0.00737</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.00393</v>
+        <v>0.00392</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.00577</v>
+        <v>0.00569</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.00706</v>
+        <v>0.00696</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.00566</v>
+        <v>0.00574</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.00171</v>
+        <v>0.00176</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.00662</v>
+        <v>0.0063</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01184</v>
+        <v>0.01164</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.00493</v>
+        <v>0.00498</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01884</v>
+        <v>0.01867</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.00433</v>
+        <v>0.0042</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01436</v>
+        <v>0.01388</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01483</v>
+        <v>0.01495</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.02515</v>
+        <v>0.0255</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.03342</v>
+        <v>0.0335</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.01873</v>
+        <v>0.01881</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.00327</v>
+        <v>0.00312</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0033</v>
+        <v>0.00347</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.00455</v>
+        <v>0.00429</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.01111</v>
+        <v>0.01089</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.01362</v>
+        <v>0.01339</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.01229</v>
+        <v>0.01205</v>
       </c>
       <c r="DX3" t="n">
         <v>0.0048</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0097</v>
+        <v>0.009809999999999999</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01247</v>
+        <v>0.01205</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02522</v>
+        <v>0.0251</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.00703</v>
+        <v>0.00682</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.00221</v>
+        <v>0.00223</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01108</v>
+        <v>0.01103</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.009679999999999999</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01621</v>
+        <v>0.01647</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.00343</v>
+        <v>0.00339</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.00458</v>
+        <v>0.00455</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.00148</v>
+        <v>0.00149</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.00166</v>
+        <v>0.00171</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.00673</v>
+        <v>0.0067</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.00812</v>
+        <v>0.00778</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.00337</v>
+        <v>0.00335</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.00558</v>
+        <v>0.0053</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.01194</v>
+        <v>0.01203</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00258</v>
+        <v>0.00244</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.02338</v>
+        <v>0.02239</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00617</v>
+        <v>0.00627</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01129</v>
+        <v>0.01141</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.00126</v>
+        <v>0.0012</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0103</v>
+        <v>0.01083</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.00176</v>
+        <v>0.0017</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.009379999999999999</v>
+        <v>0.008789999999999999</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.00153</v>
+        <v>0.00143</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.00117</v>
+        <v>0.00114</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01352</v>
+        <v>0.01329</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.00354</v>
+        <v>0.00345</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.00346</v>
+        <v>0.00336</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.00703</v>
+        <v>0.00761</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.00172</v>
+        <v>0.00162</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0032</v>
+        <v>0.00321</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.01375</v>
+        <v>0.01402</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.01291</v>
+        <v>0.01298</v>
       </c>
       <c r="FH3" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.00381</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0.00379</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>0.00573</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>0.00174</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.02019</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0.00165</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.04121</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0.00762</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0.00696</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.00413</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0.00223</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>0.01379</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0.00211</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0.00422</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0.00489</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0.00243</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>0.00398</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.01053</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0.00226</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0.00647</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0.00083</v>
+      </c>
+      <c r="GH3" t="n">
         <v>0.0008899999999999999</v>
       </c>
-      <c r="FI3" t="n">
-        <v>0.00402</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0.00377</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0.00839</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0.00594</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>0.00915</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0.00176</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0.01933</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0.00167</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.03913</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0.00749</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0.00703</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0.00411</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0.00233</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0.0137</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>0.00903</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0.00202</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>0.00496</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0.00253</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>0.00403</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0.00092</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0.01062</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0.00086</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0.00088</v>
-      </c>
       <c r="GI3" t="n">
-        <v>0.01106</v>
+        <v>0.01133</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.00179</v>
+        <v>0.0018</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.01073</v>
+        <v>0.01157</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.00115</v>
+        <v>0.00113</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.01059</v>
+        <v>0.01079</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.00252</v>
+        <v>0.00241</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.01045</v>
+        <v>0.01105</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.00098</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.00228</v>
+        <v>0.00225</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.00639</v>
+        <v>0.00696</v>
       </c>
       <c r="GS3" t="n">
-        <v>0.008619999999999999</v>
+        <v>0.00856</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.00482</v>
+        <v>0.00459</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.00169</v>
+        <v>0.00174</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.00148</v>
+        <v>0.00144</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.00303</v>
+        <v>0.00331</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.00201</v>
+        <v>0.00207</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.002</v>
+        <v>0.00207</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.00081</v>
+        <v>0.0008</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.00667</v>
+        <v>0.00662</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.0035</v>
+        <v>0.0036</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.01197</v>
+        <v>0.01153</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.00467</v>
+        <v>0.00455</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.00253</v>
+        <v>0.00272</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.00495</v>
+        <v>0.00507</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.00068</v>
+        <v>0.00078</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.00485</v>
+        <v>0.00475</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.00172</v>
+        <v>0.00163</v>
       </c>
       <c r="HJ3" t="n">
         <v>0.00451</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.00272</v>
+        <v>0.00264</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.00151</v>
+        <v>0.00144</v>
       </c>
       <c r="HM3" t="n">
         <v>0.0006400000000000001</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.00316</v>
+        <v>0.00328</v>
       </c>
       <c r="HO3" t="n">
         <v>0.00209</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.00232</v>
+        <v>0.00221</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.01163</v>
+        <v>0.01167</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.00848</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.00067</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.00369</v>
+        <v>0.00364</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.00101</v>
+        <v>0.00098</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.0028</v>
+        <v>0.00272</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.00066</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.00327</v>
+        <v>0.00329</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.00715</v>
+        <v>0.00722</v>
       </c>
       <c r="HZ3" t="n">
-        <v>0.00369</v>
+        <v>0.00363</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.00584</v>
+        <v>0.00624</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.00636</v>
+        <v>0.00651</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.00356</v>
+        <v>0.0035</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.00113</v>
+        <v>0.00106</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.00111</v>
+        <v>0.00106</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.00103</v>
+        <v>0.00094</v>
       </c>
       <c r="IG3" t="n">
         <v>0.00047</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.00058</v>
+        <v>0.00056</v>
       </c>
       <c r="II3" t="n">
-        <v>0.00386</v>
+        <v>0.00384</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0.00063</v>
+        <v>0.00062</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00115</v>
+        <v>0.00117</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.00444</v>
+        <v>0.00453</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.00088</v>
+        <v>0.00085</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.00059</v>
+        <v>0.00057</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.00049</v>
+        <v>0.0005</v>
       </c>
       <c r="IP3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="IR3" t="n">
         <v>0.00074</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>0.00065</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0.00073</v>
-      </c>
       <c r="IS3" t="n">
-        <v>0.00047</v>
+        <v>0.00044</v>
       </c>
       <c r="IT3" t="n">
         <v>0.00044</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.0008899999999999999</v>
+        <v>0.00091</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.00083</v>
+        <v>0.00086</v>
       </c>
     </row>
   </sheetData>

--- a/example/LusMeg00028.xlsx
+++ b/example/LusMeg00028.xlsx
@@ -1723,325 +1723,325 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02111</v>
+        <v>0.02107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04505</v>
+        <v>0.04582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.94453</v>
+        <v>0.94459</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02706</v>
+        <v>0.0275</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03467</v>
+        <v>0.03487</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01503</v>
+        <v>0.01517</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03563</v>
+        <v>0.03667</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01136</v>
+        <v>0.01134</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01668</v>
+        <v>0.01733</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01495</v>
+        <v>0.01484</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01249</v>
+        <v>0.0126</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00865</v>
+        <v>0.00874</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02029</v>
+        <v>0.0206</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0215</v>
+        <v>0.02175</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00891</v>
+        <v>0.00889</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02245</v>
+        <v>0.02287</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03848</v>
+        <v>0.03796</v>
       </c>
       <c r="T2" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.00667</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.01644</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.02037</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.01713</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.00641</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.01634</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.02006</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.01671</v>
-      </c>
       <c r="Y2" t="n">
-        <v>0.02066</v>
+        <v>0.02094</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.02295</v>
+        <v>0.02297</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.01689</v>
+        <v>0.01736</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01327</v>
+        <v>0.0132</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.01391</v>
+        <v>0.01383</v>
       </c>
       <c r="AD2" t="n">
         <v>0.01102</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.01345</v>
+        <v>0.01339</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.01494</v>
+        <v>0.01579</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00395</v>
+        <v>0.0039</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.01589</v>
+        <v>0.01574</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.00993</v>
+        <v>0.009979999999999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02214</v>
+        <v>0.02204</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.01166</v>
+        <v>0.01238</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.009769999999999999</v>
+        <v>0.0097</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.02526</v>
+        <v>0.02559</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.01754</v>
+        <v>0.01768</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00407</v>
+        <v>0.00415</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.00768</v>
+        <v>0.00791</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.01056</v>
+        <v>0.01037</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.01079</v>
+        <v>0.01108</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.01356</v>
+        <v>0.01406</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.00373</v>
+        <v>0.00388</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.00911</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.01198</v>
+        <v>0.01201</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01579</v>
+        <v>0.01598</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.00835</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.00818</v>
+        <v>0.00829</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.02291</v>
+        <v>0.02332</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.00668</v>
+        <v>0.0066</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.00442</v>
+        <v>0.00446</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.00572</v>
+        <v>0.0056</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.02393</v>
+        <v>0.025</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.01542</v>
+        <v>0.01596</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.00752</v>
+        <v>0.00783</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00714</v>
+        <v>0.00731</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.01442</v>
+        <v>0.01453</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.00774</v>
+        <v>0.00775</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.00949</v>
+        <v>0.00974</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.01079</v>
+        <v>0.01097</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.01168</v>
+        <v>0.01167</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00494</v>
+        <v>0.00512</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00734</v>
+        <v>0.00754</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.01354</v>
+        <v>0.01321</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00953</v>
+        <v>0.009429999999999999</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.00449</v>
+        <v>0.00458</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.00482</v>
+        <v>0.00478</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.01372</v>
+        <v>0.01379</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.00412</v>
+        <v>0.00425</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.01209</v>
+        <v>0.01228</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.00993</v>
+        <v>0.01012</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.00608</v>
+        <v>0.00595</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.009140000000000001</v>
+        <v>0.00937</v>
       </c>
       <c r="BY2" t="n">
         <v>0.00506</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.00649</v>
+        <v>0.00663</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.01249</v>
+        <v>0.01281</v>
       </c>
       <c r="CB2" t="n">
+        <v>0.008229999999999999</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.01084</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.01218</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.00418</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.00292</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.0074</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.01203</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.01702</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.01304</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.00731</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.00592</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.00337</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.008619999999999999</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.00215</v>
+      </c>
+      <c r="CQ2" t="n">
         <v>0.008109999999999999</v>
       </c>
-      <c r="CC2" t="n">
-        <v>0.01067</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.01192</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.00416</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0.00285</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.00732</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.01201</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.01579</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.01263</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.00706</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.00582</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.00331</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.008659999999999999</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.00362</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.00214</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.0077</v>
-      </c>
       <c r="CR2" t="n">
-        <v>0.00911</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.00204</v>
+        <v>0.00208</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.00591</v>
+        <v>0.00617</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.00264</v>
+        <v>0.0027</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.00988</v>
+        <v>0.01016</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00434</v>
+        <v>0.00436</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.00248</v>
+        <v>0.00258</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01371</v>
+        <v>0.01382</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.00323</v>
+        <v>0.00326</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.00201</v>
+        <v>0.00199</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00299</v>
+        <v>0.00296</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.00301</v>
+        <v>0.00302</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.00277</v>
+        <v>0.00275</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00288</v>
+        <v>0.00289</v>
       </c>
       <c r="DF2" t="n">
         <v>0.00245</v>
@@ -2050,415 +2050,415 @@
         <v>0.00123</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00204</v>
+        <v>0.00207</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.00736</v>
+        <v>0.00751</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00312</v>
+        <v>0.00317</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.007849999999999999</v>
+        <v>0.00804</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.00183</v>
+        <v>0.0019</v>
       </c>
       <c r="DM2" t="n">
         <v>0.00459</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.00575</v>
+        <v>0.00584</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.009719999999999999</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00641</v>
+        <v>0.00657</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.00558</v>
+        <v>0.00581</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.00157</v>
+        <v>0.00162</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.00193</v>
+        <v>0.0019</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00266</v>
+        <v>0.00273</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.01168</v>
+        <v>0.01255</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.00753</v>
+        <v>0.00756</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.00211</v>
+        <v>0.00216</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.00298</v>
+        <v>0.00296</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.00347</v>
+        <v>0.00344</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.00467</v>
+        <v>0.00463</v>
       </c>
       <c r="EA2" t="n">
         <v>0.0062</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.00253</v>
+        <v>0.00256</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.00152</v>
+        <v>0.0015</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00354</v>
+        <v>0.00355</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.00506</v>
+        <v>0.00542</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00464</v>
+        <v>0.00473</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00277</v>
+        <v>0.00282</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00233</v>
+        <v>0.00239</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.00157</v>
+        <v>0.00159</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.00195</v>
+        <v>0.00198</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.00423</v>
+        <v>0.0044</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00306</v>
+        <v>0.00314</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.00247</v>
+        <v>0.00258</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.00224</v>
+        <v>0.00223</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00709</v>
+        <v>0.00734</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.00334</v>
+        <v>0.00353</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00993</v>
+        <v>0.00992</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.00445</v>
+        <v>0.0048</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.00344</v>
+        <v>0.00355</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.00141</v>
+        <v>0.00148</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.00213</v>
+        <v>0.00218</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.00143</v>
+        <v>0.0015</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.00365</v>
+        <v>0.00378</v>
       </c>
       <c r="EX2" t="n">
+        <v>0.00178</v>
+      </c>
+      <c r="EY2" t="n">
         <v>0.00171</v>
       </c>
-      <c r="EY2" t="n">
-        <v>0.00173</v>
-      </c>
       <c r="EZ2" t="n">
-        <v>0.00706</v>
+        <v>0.00713</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.00273</v>
+        <v>0.00284</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.00183</v>
+        <v>0.00185</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.00276</v>
+        <v>0.0029</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.00136</v>
+        <v>0.00137</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.00319</v>
+        <v>0.00332</v>
       </c>
       <c r="FF2" t="n">
         <v>0.00251</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.00361</v>
+        <v>0.00371</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.00092</v>
+        <v>0.0009</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00301</v>
+        <v>0.00314</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.00161</v>
+        <v>0.00164</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.00829</v>
+        <v>0.00808</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00278</v>
+        <v>0.00275</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00353</v>
+        <v>0.00348</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00103</v>
+        <v>0.00107</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.00386</v>
+        <v>0.00395</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00177</v>
+        <v>0.00182</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.01003</v>
+        <v>0.00997</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00508</v>
+        <v>0.00507</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.00233</v>
+        <v>0.0024</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.00603</v>
+        <v>0.0061</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00116</v>
+        <v>0.00115</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.00517</v>
+        <v>0.00525</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0045</v>
+        <v>0.00448</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.00277</v>
+        <v>0.00283</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.00223</v>
+        <v>0.00229</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.00138</v>
+        <v>0.00142</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.00192</v>
+        <v>0.00199</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.00344</v>
+        <v>0.00359</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.00199</v>
+        <v>0.00196</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.00344</v>
+        <v>0.00349</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0016</v>
+        <v>0.00163</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.00241</v>
+        <v>0.00245</v>
       </c>
       <c r="GG2" t="n">
         <v>0.00096</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.00085</v>
+        <v>0.00084</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.00235</v>
+        <v>0.00246</v>
       </c>
       <c r="GJ2" t="n">
         <v>0.00139</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.00327</v>
+        <v>0.00318</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.00131</v>
+        <v>0.00134</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.01233</v>
+        <v>0.01286</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00134</v>
+        <v>0.00136</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.00192</v>
+        <v>0.00202</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.00077</v>
+        <v>0.00079</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.00117</v>
+        <v>0.00115</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.00074</v>
+        <v>0.00075</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.00187</v>
+        <v>0.00189</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.00212</v>
+        <v>0.00207</v>
       </c>
       <c r="GU2" t="n">
         <v>0.00081</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.00131</v>
+        <v>0.00136</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.0021</v>
+        <v>0.00211</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.00193</v>
+        <v>0.00199</v>
       </c>
       <c r="GY2" t="n">
+        <v>0.00141</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.00088</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.00186</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.00377</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.00188</v>
+      </c>
+      <c r="HE2" t="n">
         <v>0.00138</v>
       </c>
-      <c r="GZ2" t="n">
-        <v>0.00086</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.00187</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.00152</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.00373</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.00193</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.00132</v>
-      </c>
       <c r="HF2" t="n">
-        <v>0.0018</v>
+        <v>0.00186</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.00346</v>
+        <v>0.00358</v>
       </c>
       <c r="HH2" t="n">
         <v>0.00178</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.00121</v>
+        <v>0.00118</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.00116</v>
+        <v>0.00115</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00098</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.00112</v>
+        <v>0.00114</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00061</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.00131</v>
+        <v>0.00136</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.00316</v>
+        <v>0.00332</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.00108</v>
+        <v>0.00111</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.00246</v>
+        <v>0.0024</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.00094</v>
+        <v>0.00096</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.00052</v>
+        <v>0.00053</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.00112</v>
+        <v>0.00115</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.00118</v>
+        <v>0.00124</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.00151</v>
+        <v>0.00156</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.00075</v>
+        <v>0.00076</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.00078</v>
+        <v>0.00081</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.00156</v>
+        <v>0.00167</v>
       </c>
       <c r="HZ2" t="n">
-        <v>0.00414</v>
+        <v>0.00422</v>
       </c>
       <c r="IA2" t="n">
         <v>0.00079</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.00217</v>
+        <v>0.0022</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.00209</v>
+        <v>0.00212</v>
       </c>
       <c r="ID2" t="n">
         <v>0.00112</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.00103</v>
+        <v>0.00108</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.0023</v>
+        <v>0.00229</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.00054</v>
+        <v>0.00056</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.00069</v>
+        <v>0.00068</v>
       </c>
       <c r="II2" t="n">
-        <v>0.00135</v>
+        <v>0.00138</v>
       </c>
       <c r="IJ2" t="n">
         <v>0.00065</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.00249</v>
+        <v>0.0026</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.00083</v>
+        <v>0.00085</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.00079</v>
+        <v>0.0008</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.00052</v>
+        <v>0.00053</v>
       </c>
       <c r="IO2" t="n">
         <v>0.0005999999999999999</v>
@@ -2467,16 +2467,16 @@
         <v>0.00062</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.00069</v>
+        <v>0.00067</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.00079</v>
+        <v>0.0008</v>
       </c>
       <c r="IS2" t="n">
         <v>0.00042</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.00048</v>
+        <v>0.00049</v>
       </c>
       <c r="IU2" t="n">
         <v>0.00047</v>
@@ -2493,766 +2493,766 @@
         <v>6.10063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02907</v>
+        <v>0.02983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07228999999999999</v>
+        <v>0.07241</v>
       </c>
       <c r="E3" t="n">
-        <v>0.94385</v>
+        <v>0.94411</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0368</v>
+        <v>0.03621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05559</v>
+        <v>0.05759</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04078</v>
+        <v>0.04056</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0443</v>
+        <v>0.04666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02014</v>
+        <v>0.02043</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04102</v>
+        <v>0.04136</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02825</v>
+        <v>0.02836</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02556</v>
+        <v>0.02571</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01735</v>
+        <v>0.01768</v>
       </c>
       <c r="O3" t="n">
-        <v>0.10596</v>
+        <v>0.09693</v>
       </c>
       <c r="P3" t="n">
         <v>0.02874</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01581</v>
+        <v>0.01611</v>
       </c>
       <c r="R3" t="n">
-        <v>0.04668</v>
+        <v>0.0477</v>
       </c>
       <c r="S3" t="n">
-        <v>0.05337</v>
+        <v>0.05161</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0308</v>
+        <v>0.0314</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01505</v>
+        <v>0.01496</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03113</v>
+        <v>0.03036</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03832</v>
+        <v>0.03865</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04642</v>
+        <v>0.04746</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.08262</v>
+        <v>0.07975</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06353</v>
+        <v>0.06372999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.04077</v>
+        <v>0.0406</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02454</v>
+        <v>0.02488</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.04444</v>
+        <v>0.04576</v>
       </c>
       <c r="AD3" t="n">
         <v>0.0334</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02926</v>
+        <v>0.02956</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06052</v>
+        <v>0.06076</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00691</v>
+        <v>0.00707</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.04405</v>
+        <v>0.04531</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02193</v>
+        <v>0.02263</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.06718</v>
+        <v>0.06832000000000001</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02455</v>
+        <v>0.02492</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0197</v>
+        <v>0.02048</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0423</v>
+        <v>0.04401</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03842</v>
+        <v>0.03874</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02641</v>
+        <v>0.02574</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00801</v>
+        <v>0.00817</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01972</v>
+        <v>0.02073</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01583</v>
+        <v>0.01633</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.03182</v>
+        <v>0.03178</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.01138</v>
+        <v>0.01157</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.01445</v>
+        <v>0.015</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.05158</v>
+        <v>0.05177</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02304</v>
+        <v>0.02287</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.02062</v>
+        <v>0.02036</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.02299</v>
+        <v>0.02322</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.05939</v>
+        <v>0.06071</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0227</v>
+        <v>0.02293</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0102</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.01475</v>
+        <v>0.01425</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.06103</v>
+        <v>0.06671000000000001</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0379</v>
+        <v>0.03863</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01445</v>
+        <v>0.01518</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0288</v>
+        <v>0.02874</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.03725</v>
+        <v>0.0382</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.02447</v>
+        <v>0.02535</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01416</v>
+        <v>0.01404</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.01826</v>
+        <v>0.01811</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.05018</v>
+        <v>0.04993</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.00971</v>
+        <v>0.009769999999999999</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.02529</v>
+        <v>0.02439</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.03585</v>
+        <v>0.03574</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.01689</v>
+        <v>0.01644</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.01203</v>
+        <v>0.01209</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.01491</v>
+        <v>0.01568</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.02649</v>
+        <v>0.02695</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.00661</v>
+        <v>0.0067</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.02322</v>
+        <v>0.0234</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.02381</v>
+        <v>0.02466</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.01259</v>
+        <v>0.013</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.01389</v>
+        <v>0.01425</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01148</v>
+        <v>0.01227</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.00764</v>
+        <v>0.00792</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.01988</v>
+        <v>0.02078</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.0315</v>
+        <v>0.03154</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02318</v>
+        <v>0.02363</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02909</v>
+        <v>0.02966</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.01042</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.00495</v>
+        <v>0.00516</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.01044</v>
+        <v>0.01047</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.01296</v>
+        <v>0.01351</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01531</v>
+        <v>0.01504</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02653</v>
+        <v>0.02714</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.01202</v>
+        <v>0.01256</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.01096</v>
+        <v>0.0114</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.00688</v>
+        <v>0.00721</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.03335</v>
+        <v>0.03215</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.00678</v>
+        <v>0.00722</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.00469</v>
+        <v>0.00493</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.00667</v>
+        <v>0.00689</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01613</v>
+        <v>0.0167</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.00399</v>
+        <v>0.00415</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.00615</v>
+        <v>0.00637</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.00522</v>
+        <v>0.0054</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.01309</v>
+        <v>0.01372</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.00929</v>
+        <v>0.00961</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.00719</v>
+        <v>0.00728</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.03467</v>
+        <v>0.03508</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.00406</v>
+        <v>0.00419</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.00737</v>
+        <v>0.00747</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.00392</v>
+        <v>0.00393</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.00569</v>
+        <v>0.00577</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.00696</v>
+        <v>0.00705</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.00574</v>
+        <v>0.00566</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.00176</v>
+        <v>0.00171</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.0063</v>
+        <v>0.00663</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.01164</v>
+        <v>0.01182</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.00498</v>
+        <v>0.00492</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.01867</v>
+        <v>0.01882</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0042</v>
+        <v>0.00433</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.01388</v>
+        <v>0.01435</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01495</v>
+        <v>0.01484</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.0255</v>
+        <v>0.02514</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0335</v>
+        <v>0.03341</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.01881</v>
+        <v>0.01872</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.00312</v>
+        <v>0.00327</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.00347</v>
+        <v>0.0033</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.00429</v>
+        <v>0.00454</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.01089</v>
+        <v>0.01111</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.01339</v>
+        <v>0.01362</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.01205</v>
+        <v>0.0123</v>
       </c>
       <c r="DX3" t="n">
         <v>0.0048</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.009809999999999999</v>
+        <v>0.0097</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01205</v>
+        <v>0.01247</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0251</v>
+        <v>0.02521</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.00682</v>
+        <v>0.00703</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.00223</v>
+        <v>0.00221</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01103</v>
+        <v>0.01107</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009679999999999999</v>
+        <v>0.009979999999999999</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.01647</v>
+        <v>0.0162</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.00339</v>
+        <v>0.00343</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.00455</v>
+        <v>0.00458</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.00149</v>
+        <v>0.00148</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.00171</v>
+        <v>0.00166</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0067</v>
+        <v>0.00673</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.00778</v>
+        <v>0.00812</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.00335</v>
+        <v>0.00337</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0053</v>
+        <v>0.00558</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.01203</v>
+        <v>0.01192</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00244</v>
+        <v>0.00258</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.02239</v>
+        <v>0.02338</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00627</v>
+        <v>0.00617</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.01141</v>
+        <v>0.01128</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0012</v>
+        <v>0.00126</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.01083</v>
+        <v>0.01029</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0017</v>
+        <v>0.00176</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.008789999999999999</v>
+        <v>0.009390000000000001</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.00143</v>
+        <v>0.00153</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.00114</v>
+        <v>0.00117</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.01329</v>
+        <v>0.01351</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.00345</v>
+        <v>0.00354</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.00336</v>
+        <v>0.00346</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.00761</v>
+        <v>0.00701</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.00162</v>
+        <v>0.00172</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.00321</v>
+        <v>0.00319</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.01402</v>
+        <v>0.01374</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.01298</v>
+        <v>0.0129</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0009</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.00381</v>
+        <v>0.00402</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.00379</v>
+        <v>0.00377</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.00838</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.00573</v>
+        <v>0.00594</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0091</v>
+        <v>0.00915</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.00174</v>
+        <v>0.00177</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.02019</v>
+        <v>0.01932</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.00165</v>
+        <v>0.00167</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.04121</v>
+        <v>0.03909</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.00762</v>
+        <v>0.00749</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.00696</v>
+        <v>0.00702</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.00413</v>
+        <v>0.00411</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.00223</v>
+        <v>0.00233</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.01379</v>
+        <v>0.01368</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0089</v>
+        <v>0.00902</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.00211</v>
+        <v>0.00202</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.00422</v>
+        <v>0.0044</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.00489</v>
+        <v>0.00496</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.00243</v>
+        <v>0.00253</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.00398</v>
+        <v>0.00402</v>
       </c>
       <c r="GC3" t="n">
+        <v>0.00092</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.01061</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0.00086</v>
+      </c>
+      <c r="GH3" t="n">
         <v>0.00088</v>
       </c>
-      <c r="GD3" t="n">
-        <v>0.01053</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0.00226</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>0.00647</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0.00083</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0.0008899999999999999</v>
-      </c>
       <c r="GI3" t="n">
-        <v>0.01133</v>
+        <v>0.01106</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.0018</v>
+        <v>0.00179</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.01157</v>
+        <v>0.01073</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.00113</v>
+        <v>0.00115</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.01079</v>
+        <v>0.01059</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.00241</v>
+        <v>0.00252</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.01105</v>
+        <v>0.01045</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00098</v>
       </c>
       <c r="GQ3" t="n">
-        <v>0.00225</v>
+        <v>0.00228</v>
       </c>
       <c r="GR3" t="n">
-        <v>0.00696</v>
+        <v>0.00638</v>
       </c>
       <c r="GS3" t="n">
-        <v>0.00856</v>
+        <v>0.00861</v>
       </c>
       <c r="GT3" t="n">
-        <v>0.00459</v>
+        <v>0.00482</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.00174</v>
+        <v>0.00169</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.00144</v>
+        <v>0.00148</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.00331</v>
+        <v>0.00303</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.00207</v>
+        <v>0.002</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.00207</v>
+        <v>0.002</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.0008</v>
+        <v>0.00081</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.00662</v>
+        <v>0.00667</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.0036</v>
+        <v>0.0035</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.01153</v>
+        <v>0.01196</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.00455</v>
+        <v>0.00467</v>
       </c>
       <c r="HE3" t="n">
+        <v>0.00253</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0.00496</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0.00485</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="HK3" t="n">
         <v>0.00272</v>
       </c>
-      <c r="HF3" t="n">
-        <v>0.00507</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0.00078</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0.00475</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0.00163</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0.00451</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>0.00264</v>
-      </c>
       <c r="HL3" t="n">
-        <v>0.00144</v>
+        <v>0.0015</v>
       </c>
       <c r="HM3" t="n">
         <v>0.0006400000000000001</v>
       </c>
       <c r="HN3" t="n">
-        <v>0.00328</v>
+        <v>0.00315</v>
       </c>
       <c r="HO3" t="n">
         <v>0.00209</v>
       </c>
       <c r="HP3" t="n">
-        <v>0.00221</v>
+        <v>0.00232</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.01167</v>
+        <v>0.01163</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.00848</v>
+        <v>0.00805</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00067</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.00364</v>
+        <v>0.00369</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.00098</v>
+        <v>0.00101</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.00272</v>
+        <v>0.0028</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.0006400000000000001</v>
+        <v>0.00066</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.00329</v>
+        <v>0.00327</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.00722</v>
+        <v>0.00714</v>
       </c>
       <c r="HZ3" t="n">
-        <v>0.00363</v>
+        <v>0.00369</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.00624</v>
+        <v>0.00583</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.00651</v>
+        <v>0.00636</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.0035</v>
+        <v>0.00356</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.00106</v>
+        <v>0.00113</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.00106</v>
+        <v>0.00111</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.00094</v>
+        <v>0.00103</v>
       </c>
       <c r="IG3" t="n">
         <v>0.00047</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.00056</v>
+        <v>0.00058</v>
       </c>
       <c r="II3" t="n">
-        <v>0.00384</v>
+        <v>0.00385</v>
       </c>
       <c r="IJ3" t="n">
-        <v>0.00062</v>
+        <v>0.00063</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.00117</v>
+        <v>0.00115</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.00453</v>
+        <v>0.00444</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.00085</v>
+        <v>0.00088</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.00057</v>
+        <v>0.00059</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.0005</v>
+        <v>0.00049</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.0007</v>
+        <v>0.00074</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.00066</v>
+        <v>0.00065</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.00074</v>
+        <v>0.00073</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.00044</v>
+        <v>0.00047</v>
       </c>
       <c r="IT3" t="n">
         <v>0.00044</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.00091</v>
+        <v>0.00088</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.00086</v>
+        <v>0.00083</v>
       </c>
     </row>
   </sheetData>
